--- a/data/2020-10-19_field-season-2014_survey-tidy-data-01.xlsx
+++ b/data/2020-10-19_field-season-2014_survey-tidy-data-01.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/46ad3839a27dc2bf/Documents/tfcb_2020-master/homeworks/homework02/tfcb-homework02/tfcb-homework02/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3C3DBA3-90CF-4B33-8DFD-21693CD89580}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="8_{A3C3DBA3-90CF-4B33-8DFD-21693CD89580}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{3A2C8AEB-0D71-4A4D-ADFD-70888953FBF7}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="481" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="481" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2013" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="47">
   <si>
     <t>NA</t>
   </si>
@@ -140,6 +140,36 @@
   </si>
   <si>
     <t>gray cell means my measurement device wasn't calibrated correctly</t>
+  </si>
+  <si>
+    <t>species</t>
+  </si>
+  <si>
+    <t>date-collected</t>
+  </si>
+  <si>
+    <t>plot</t>
+  </si>
+  <si>
+    <t>sex</t>
+  </si>
+  <si>
+    <t>notes</t>
+  </si>
+  <si>
+    <t>dm</t>
+  </si>
+  <si>
+    <t>2013-07-16</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>weight-g</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -321,7 +351,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -344,6 +374,14 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -735,7 +773,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -779,7 +817,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -803,8 +841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:AB28"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="24.9" x14ac:dyDescent="0.8"/>
@@ -812,9 +850,10 @@
     <col min="1" max="1" width="18.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1"/>
     <col min="3" max="3" width="26.1640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.5" customWidth="1"/>
-    <col min="5" max="5" width="12.83203125" customWidth="1"/>
+    <col min="4" max="4" width="30.94140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.71875" style="29" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="15.5" style="29" customWidth="1"/>
     <col min="8" max="8" width="25.6640625" customWidth="1"/>
     <col min="11" max="11" width="15.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" customWidth="1"/>
@@ -832,9 +871,9 @@
         <v>20</v>
       </c>
       <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="G3" s="25"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
       <c r="J3" s="5"/>
@@ -849,9 +888,9 @@
     <row r="4" spans="3:17" ht="30" x14ac:dyDescent="0.95">
       <c r="C4" s="5"/>
       <c r="D4" s="5"/>
-      <c r="E4" s="5"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="G4" s="25"/>
       <c r="H4" s="5"/>
       <c r="I4" s="5"/>
       <c r="J4" s="5"/>
@@ -866,9 +905,9 @@
     <row r="5" spans="3:17" ht="30" x14ac:dyDescent="0.95">
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
+      <c r="E5" s="25"/>
       <c r="F5" s="5"/>
-      <c r="G5" s="5"/>
+      <c r="G5" s="25"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
       <c r="J5" s="5"/>
@@ -885,9 +924,9 @@
         <v>12</v>
       </c>
       <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
+      <c r="E6" s="26"/>
       <c r="F6" s="14"/>
-      <c r="G6" s="5"/>
+      <c r="G6" s="25"/>
       <c r="H6" s="12" t="s">
         <v>13</v>
       </c>
@@ -910,13 +949,13 @@
       <c r="D7" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="16" t="s">
+      <c r="E7" s="27" t="s">
         <v>9</v>
       </c>
       <c r="F7" s="17" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="5"/>
+      <c r="G7" s="25"/>
       <c r="H7" s="15" t="s">
         <v>8</v>
       </c>
@@ -951,11 +990,11 @@
       <c r="D8" s="16">
         <v>2</v>
       </c>
-      <c r="E8" s="16" t="s">
+      <c r="E8" s="27" t="s">
         <v>3</v>
       </c>
       <c r="F8" s="17"/>
-      <c r="G8" s="5"/>
+      <c r="G8" s="25"/>
       <c r="H8" s="18">
         <v>41505</v>
       </c>
@@ -990,13 +1029,13 @@
       <c r="D9" s="16">
         <v>7</v>
       </c>
-      <c r="E9" s="16" t="s">
+      <c r="E9" s="27" t="s">
         <v>1</v>
       </c>
       <c r="F9" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="G9" s="25"/>
       <c r="H9" s="18">
         <v>41564</v>
       </c>
@@ -1031,11 +1070,11 @@
       <c r="D10" s="16">
         <v>3</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="27" t="s">
         <v>1</v>
       </c>
       <c r="F10" s="17"/>
-      <c r="G10" s="5"/>
+      <c r="G10" s="25"/>
       <c r="H10" s="18">
         <v>41564</v>
       </c>
@@ -1070,11 +1109,11 @@
       <c r="D11" s="16">
         <v>1</v>
       </c>
-      <c r="E11" s="16" t="s">
+      <c r="E11" s="27" t="s">
         <v>1</v>
       </c>
       <c r="F11" s="17"/>
-      <c r="G11" s="5"/>
+      <c r="G11" s="25"/>
       <c r="H11" s="18">
         <v>41618</v>
       </c>
@@ -1109,13 +1148,13 @@
       <c r="D12" s="16">
         <v>3</v>
       </c>
-      <c r="E12" s="16" t="s">
+      <c r="E12" s="27" t="s">
         <v>1</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="G12" s="25"/>
       <c r="H12" s="18">
         <v>41618</v>
       </c>
@@ -1150,13 +1189,13 @@
       <c r="D13" s="16">
         <v>7</v>
       </c>
-      <c r="E13" s="16" t="s">
+      <c r="E13" s="27" t="s">
         <v>1</v>
       </c>
       <c r="F13" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="G13" s="25"/>
       <c r="H13" s="19">
         <v>41619</v>
       </c>
@@ -1191,13 +1230,13 @@
       <c r="D14" s="16">
         <v>4</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="27" t="s">
         <v>3</v>
       </c>
       <c r="F14" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="G14" s="5"/>
+      <c r="G14" s="25"/>
       <c r="H14" s="5"/>
       <c r="I14" s="5"/>
       <c r="J14" s="5"/>
@@ -1224,13 +1263,13 @@
       <c r="D15" s="20">
         <v>6</v>
       </c>
-      <c r="E15" s="20" t="s">
+      <c r="E15" s="28" t="s">
         <v>3</v>
       </c>
       <c r="F15" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="G15" s="25"/>
       <c r="H15" s="5"/>
       <c r="I15" s="5"/>
       <c r="J15" s="5"/>
@@ -1245,9 +1284,9 @@
     <row r="16" spans="3:17" ht="30" x14ac:dyDescent="0.95">
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
+      <c r="E16" s="25"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
+      <c r="G16" s="25"/>
       <c r="H16" s="5"/>
       <c r="I16" s="5"/>
       <c r="J16" s="5"/>
@@ -1260,12 +1299,24 @@
       <c r="Q16" s="5"/>
     </row>
     <row r="17" spans="3:17" ht="30" x14ac:dyDescent="0.95">
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="C17" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="22" t="s">
+        <v>40</v>
+      </c>
+      <c r="G17" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>41</v>
+      </c>
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
@@ -1277,12 +1328,19 @@
       <c r="Q17" s="5"/>
     </row>
     <row r="18" spans="3:17" ht="30" x14ac:dyDescent="0.95">
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
+      <c r="C18" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E18" s="25">
+        <v>2</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="H18" s="22"/>
       <c r="I18" s="5"/>
       <c r="J18" s="5"/>
       <c r="K18" s="5"/>
@@ -1294,12 +1352,22 @@
       <c r="Q18" s="5"/>
     </row>
     <row r="19" spans="3:17" ht="30" x14ac:dyDescent="0.95">
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="5"/>
-      <c r="H19" s="5"/>
+      <c r="C19" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E19" s="25">
+        <v>7</v>
+      </c>
+      <c r="F19" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G19" s="25">
+        <v>33</v>
+      </c>
+      <c r="H19" s="22"/>
       <c r="I19" s="5"/>
       <c r="J19" s="5"/>
       <c r="K19" s="5"/>
@@ -1311,12 +1379,20 @@
       <c r="Q19" s="5"/>
     </row>
     <row r="20" spans="3:17" ht="30" x14ac:dyDescent="0.95">
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="C20" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="25">
+        <v>3</v>
+      </c>
+      <c r="F20" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="25"/>
+      <c r="H20" s="22"/>
       <c r="I20" s="5"/>
       <c r="J20" s="5"/>
       <c r="K20" s="5"/>
@@ -1328,12 +1404,14 @@
       <c r="Q20" s="5"/>
     </row>
     <row r="21" spans="3:17" ht="30" x14ac:dyDescent="0.95">
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="C21" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="22"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="22"/>
       <c r="I21" s="5"/>
       <c r="J21" s="5"/>
       <c r="K21" s="5"/>
@@ -1345,12 +1423,14 @@
       <c r="Q21" s="5"/>
     </row>
     <row r="22" spans="3:17" ht="30" x14ac:dyDescent="0.95">
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="C22" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="22"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="22"/>
       <c r="I22" s="5"/>
       <c r="J22" s="5"/>
       <c r="K22" s="5"/>
@@ -1362,7 +1442,13 @@
       <c r="Q22" s="5"/>
     </row>
     <row r="23" spans="3:17" ht="30" x14ac:dyDescent="0.95">
-      <c r="G23" s="5"/>
+      <c r="C23" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" s="23"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="23"/>
       <c r="L23" s="5"/>
       <c r="M23" s="5"/>
       <c r="N23" s="5"/>
@@ -1371,7 +1457,13 @@
       <c r="Q23" s="5"/>
     </row>
     <row r="24" spans="3:17" ht="30" x14ac:dyDescent="0.95">
-      <c r="G24" s="5"/>
+      <c r="C24" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" s="23"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="23"/>
       <c r="L24" s="5"/>
       <c r="M24" s="5"/>
       <c r="N24" s="5"/>
@@ -1380,22 +1472,28 @@
       <c r="Q24" s="5"/>
     </row>
     <row r="25" spans="3:17" ht="30" x14ac:dyDescent="0.95">
-      <c r="G25" s="5"/>
+      <c r="C25" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="23"/>
       <c r="L25" s="5"/>
       <c r="Q25" s="5"/>
     </row>
     <row r="26" spans="3:17" ht="30" x14ac:dyDescent="0.95">
-      <c r="G26" s="5"/>
+      <c r="G26" s="25"/>
       <c r="L26" s="5"/>
       <c r="Q26" s="5"/>
     </row>
     <row r="27" spans="3:17" ht="30" x14ac:dyDescent="0.95">
-      <c r="G27" s="5"/>
+      <c r="G27" s="25"/>
       <c r="L27" s="5"/>
       <c r="Q27" s="5"/>
     </row>
     <row r="28" spans="3:17" ht="30" x14ac:dyDescent="0.95">
-      <c r="G28" s="5"/>
+      <c r="G28" s="25"/>
       <c r="L28" s="5"/>
       <c r="Q28" s="5"/>
     </row>
@@ -1414,7 +1512,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C2:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
       <selection activeCell="S23" sqref="S23"/>
     </sheetView>
   </sheetViews>

--- a/data/2020-10-19_field-season-2014_survey-tidy-data-01.xlsx
+++ b/data/2020-10-19_field-season-2014_survey-tidy-data-01.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/46ad3839a27dc2bf/Documents/tfcb_2020-master/homeworks/homework02/tfcb-homework02/tfcb-homework02/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="187" documentId="8_{A3C3DBA3-90CF-4B33-8DFD-21693CD89580}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{51D06E7B-38E4-4B69-B193-10063BA4A8EB}"/>
+  <xr:revisionPtr revIDLastSave="454" documentId="8_{A3C3DBA3-90CF-4B33-8DFD-21693CD89580}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{FB064B6A-5B0C-40C8-900B-3A0145648138}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="481" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" tabRatio="481" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="2013-field-season" sheetId="1" r:id="rId1"/>
-    <sheet name="2014" sheetId="2" r:id="rId2"/>
+    <sheet name="1978-field-season" sheetId="5" r:id="rId1"/>
+    <sheet name="2013-field-season" sheetId="1" r:id="rId2"/>
+    <sheet name="2014-field-season" sheetId="2" r:id="rId3"/>
+    <sheet name="2015-field-season" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,56 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="44">
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>M</t>
-  </si>
-  <si>
-    <t>DM</t>
-  </si>
-  <si>
-    <t>F</t>
-  </si>
-  <si>
-    <t>PF</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>OT</t>
-  </si>
-  <si>
-    <t>OX</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>Weight</t>
-  </si>
-  <si>
-    <t>Plot: 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="46">
   <si>
     <t>Date collected</t>
   </si>
   <si>
-    <t>Species</t>
-  </si>
-  <si>
-    <t>Plot: 2</t>
-  </si>
-  <si>
-    <t>Plot: 3</t>
-  </si>
-  <si>
-    <t>Field season 2014</t>
-  </si>
-  <si>
     <t>Plot: 4</t>
   </si>
   <si>
@@ -100,9 +57,6 @@
     <t>OL_M</t>
   </si>
   <si>
-    <t>gray cell means my measurement device wasn't calibrated correctly</t>
-  </si>
-  <si>
     <t>species</t>
   </si>
   <si>
@@ -161,6 +115,60 @@
   </si>
   <si>
     <t>scale-not-callibrated</t>
+  </si>
+  <si>
+    <t>2014-01-08</t>
+  </si>
+  <si>
+    <t>2014-01-09</t>
+  </si>
+  <si>
+    <t>2014-02-18</t>
+  </si>
+  <si>
+    <t>2014-03-13</t>
+  </si>
+  <si>
+    <t>scale-not-calibrated</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>ot</t>
+  </si>
+  <si>
+    <t>ox</t>
+  </si>
+  <si>
+    <t>pf</t>
+  </si>
+  <si>
+    <t>2015-04-08</t>
+  </si>
+  <si>
+    <t>2015-05-18</t>
+  </si>
+  <si>
+    <t>2015-07-08</t>
+  </si>
+  <si>
+    <t>2015-06-09</t>
+  </si>
+  <si>
+    <t>2015-03-11</t>
+  </si>
+  <si>
+    <t>2015-05-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">dm </t>
+  </si>
+  <si>
+    <t>1978-01-08</t>
+  </si>
+  <si>
+    <t>ol</t>
   </si>
 </sst>
 </file>
@@ -214,24 +222,12 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF808080"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -261,17 +257,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -279,15 +271,24 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -679,7 +680,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -723,7 +724,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43e0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw blurRad="63500" dist="38099" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="000000">
@@ -744,11 +745,664 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{705DD319-B839-4B9D-8768-249AD4A3E5E9}">
+  <dimension ref="B2:X47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="30" x14ac:dyDescent="0.95"/>
+  <cols>
+    <col min="3" max="3" width="22.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.27734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.5" style="1"/>
+    <col min="7" max="7" width="18.27734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.94140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="1"/>
+    <col min="11" max="11" width="29.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="26" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="22.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.1640625" style="1" customWidth="1"/>
+    <col min="15" max="18" width="11.5" style="1"/>
+    <col min="19" max="19" width="16.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.27734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.609375" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.5" style="4"/>
+    <col min="23" max="23" width="18.27734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="40.38671875" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" ht="69" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="J3" s="14"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="16"/>
+      <c r="N3" s="16"/>
+      <c r="O3" s="18"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="B4" s="14"/>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="16"/>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="18"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="B5" s="14"/>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="4">
+        <v>4</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="21">
+        <v>37</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="4"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="B6" s="14"/>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="4">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="4"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="B7" s="14"/>
+      <c r="C7" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="4">
+        <v>4</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="4">
+        <v>48</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="4"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="B8" s="14"/>
+      <c r="C8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="4">
+        <v>4</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="4">
+        <v>52</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="4"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="B9" s="14"/>
+      <c r="C9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="4">
+        <v>4</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="4">
+        <v>35</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="14"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="16"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="4"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="B10" s="14"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="16"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="B11" s="14"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="14"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="16"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="B12" s="14"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="14"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="16"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="4"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="B13" s="14"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="14"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="4"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="B14" s="14"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="14"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="16"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="4"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="B15" s="14"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="14"/>
+      <c r="K15" s="15"/>
+      <c r="L15" s="15"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="4"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="B16" s="14"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="16"/>
+      <c r="J16"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+      <c r="N16" s="4"/>
+      <c r="O16" s="4"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="B17" s="14"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="16"/>
+      <c r="J17"/>
+      <c r="N17" s="4"/>
+      <c r="O17" s="4"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="B18" s="14"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="16"/>
+      <c r="J18"/>
+      <c r="N18" s="4"/>
+      <c r="O18" s="4"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="B19" s="14"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="16"/>
+      <c r="J19"/>
+      <c r="N19" s="4"/>
+      <c r="O19" s="4"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20"/>
+      <c r="N20" s="4"/>
+      <c r="O20" s="4"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+    </row>
+    <row r="22" spans="2:17" ht="30.9" x14ac:dyDescent="1.1000000000000001">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="20"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+    </row>
+    <row r="33" spans="6:17" x14ac:dyDescent="0.95">
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+    </row>
+    <row r="34" spans="6:17" x14ac:dyDescent="0.95">
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+    </row>
+    <row r="35" spans="6:17" x14ac:dyDescent="0.95">
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+    </row>
+    <row r="36" spans="6:17" x14ac:dyDescent="0.95">
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+    </row>
+    <row r="37" spans="6:17" x14ac:dyDescent="0.95">
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+    </row>
+    <row r="38" spans="6:17" x14ac:dyDescent="0.95">
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+    </row>
+    <row r="39" spans="6:17" x14ac:dyDescent="0.95">
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+    </row>
+    <row r="40" spans="6:17" x14ac:dyDescent="0.95">
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+    </row>
+    <row r="41" spans="6:17" x14ac:dyDescent="0.95">
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+    </row>
+    <row r="42" spans="6:17" x14ac:dyDescent="0.95">
+      <c r="L42" s="4"/>
+      <c r="Q42" s="4"/>
+    </row>
+    <row r="43" spans="6:17" x14ac:dyDescent="0.95">
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="Q43" s="4"/>
+    </row>
+    <row r="44" spans="6:17" x14ac:dyDescent="0.95">
+      <c r="G44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="Q44" s="4"/>
+    </row>
+    <row r="45" spans="6:17" x14ac:dyDescent="0.95">
+      <c r="G45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="Q45" s="4"/>
+    </row>
+    <row r="46" spans="6:17" x14ac:dyDescent="0.95">
+      <c r="G46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="Q46" s="4"/>
+    </row>
+    <row r="47" spans="6:17" x14ac:dyDescent="0.95">
+      <c r="G47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="Q47" s="4"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:AB25"/>
   <sheetViews>
-    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A3" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="G7" activeCellId="1" sqref="G5 G7:G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="30" x14ac:dyDescent="0.95"/>
@@ -756,10 +1410,10 @@
     <col min="1" max="1" width="18.1640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" style="1"/>
     <col min="3" max="3" width="26.1640625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="30.94140625" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.71875" style="13" customWidth="1"/>
+    <col min="4" max="4" width="30.94140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.71875" style="9" customWidth="1"/>
     <col min="6" max="6" width="14.83203125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="18.27734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.27734375" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="41.38671875" style="4" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.5" style="1" customWidth="1"/>
     <col min="12" max="12" width="14.33203125" customWidth="1"/>
@@ -773,7 +1427,7 @@
   </cols>
   <sheetData>
     <row r="3" spans="3:17" ht="79" customHeight="1" x14ac:dyDescent="1">
-      <c r="C3" s="10"/>
+      <c r="C3" s="6"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
@@ -785,467 +1439,467 @@
       <c r="Q3" s="4"/>
     </row>
     <row r="4" spans="3:17" x14ac:dyDescent="0.95">
-      <c r="C4" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>28</v>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>12</v>
       </c>
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
-      <c r="Q4" s="11"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
     </row>
     <row r="5" spans="3:17" x14ac:dyDescent="0.95">
-      <c r="C5" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="13">
+      <c r="C5" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="9">
         <v>2</v>
       </c>
-      <c r="F5" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="15" t="s">
-        <v>35</v>
+      <c r="F5" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="22" t="s">
+        <v>19</v>
       </c>
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
-      <c r="Q5" s="11"/>
+      <c r="K5" s="7"/>
+      <c r="L5" s="7"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
     </row>
     <row r="6" spans="3:17" x14ac:dyDescent="0.95">
-      <c r="C6" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" s="13">
+      <c r="C6" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="9">
         <v>7</v>
       </c>
-      <c r="F6" s="12" t="s">
+      <c r="F6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="9">
         <v>33</v>
       </c>
-      <c r="G6" s="13">
-        <v>33</v>
-      </c>
-      <c r="H6" s="15" t="s">
-        <v>35</v>
+      <c r="H6" s="22" t="s">
+        <v>19</v>
       </c>
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
-      <c r="Q6" s="11"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="7"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
     </row>
     <row r="7" spans="3:17" x14ac:dyDescent="0.95">
-      <c r="C7" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E7" s="13">
+      <c r="C7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="9">
         <v>3</v>
       </c>
-      <c r="F7" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H7" s="15" t="s">
-        <v>35</v>
+      <c r="F7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="22" t="s">
+        <v>19</v>
       </c>
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-      <c r="N7" s="11"/>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
-      <c r="Q7" s="11"/>
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
     </row>
     <row r="8" spans="3:17" x14ac:dyDescent="0.95">
-      <c r="C8" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="13">
+      <c r="C8" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="9">
         <v>1</v>
       </c>
-      <c r="F8" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="H8" s="15" t="s">
-        <v>35</v>
+      <c r="F8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="22" t="s">
+        <v>19</v>
       </c>
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11"/>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
-      <c r="Q8" s="11"/>
+      <c r="K8" s="7"/>
+      <c r="L8" s="7"/>
+      <c r="M8" s="7"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
     </row>
     <row r="9" spans="3:17" x14ac:dyDescent="0.95">
-      <c r="C9" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D9" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E9" s="13">
+      <c r="C9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="9">
         <v>3</v>
       </c>
-      <c r="F9" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G9" s="13">
+      <c r="F9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="9">
         <v>40</v>
       </c>
-      <c r="H9" s="15" t="s">
-        <v>35</v>
+      <c r="H9" s="22" t="s">
+        <v>19</v>
       </c>
       <c r="I9" s="4"/>
       <c r="J9" s="4"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-      <c r="N9" s="11"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
-      <c r="Q9" s="11"/>
+      <c r="K9" s="7"/>
+      <c r="L9" s="7"/>
+      <c r="M9" s="7"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
     </row>
     <row r="10" spans="3:17" x14ac:dyDescent="0.95">
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="9">
+        <v>7</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="9">
+        <v>48</v>
+      </c>
+      <c r="H10" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="11"/>
+      <c r="L10" s="7"/>
+      <c r="M10" s="7"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+    </row>
+    <row r="11" spans="3:17" x14ac:dyDescent="0.95">
+      <c r="C11" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E11" s="9">
+        <v>4</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="9">
         <v>29</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="13">
-        <v>7</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="G10" s="13">
-        <v>48</v>
-      </c>
-      <c r="H10" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K10" s="17"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11"/>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
-      <c r="Q10" s="11"/>
-    </row>
-    <row r="11" spans="3:17" x14ac:dyDescent="0.95">
-      <c r="C11" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E11" s="13">
-        <v>4</v>
-      </c>
-      <c r="F11" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="13">
-        <v>29</v>
-      </c>
-      <c r="H11" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K11" s="17"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11"/>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
-      <c r="Q11" s="11"/>
+      <c r="H11" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="11"/>
+      <c r="L11" s="7"/>
+      <c r="M11" s="7"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
     </row>
     <row r="12" spans="3:17" x14ac:dyDescent="0.95">
-      <c r="C12" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="12" t="s">
-        <v>34</v>
-      </c>
-      <c r="E12" s="13">
+      <c r="C12" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="9">
         <v>6</v>
       </c>
-      <c r="F12" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="F12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G12" s="9">
         <v>37</v>
       </c>
-      <c r="H12" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K12" s="17"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
+      <c r="H12" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="11"/>
+      <c r="L12" s="7"/>
+      <c r="M12" s="12"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
     </row>
     <row r="13" spans="3:17" x14ac:dyDescent="0.95">
       <c r="C13" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D13" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="E13" s="13">
+        <v>20</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="9">
         <v>8</v>
       </c>
       <c r="F13" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G13" s="13">
+        <v>15</v>
+      </c>
+      <c r="G13" s="9">
         <v>52</v>
       </c>
-      <c r="H13" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K13" s="17"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="18"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
+      <c r="H13" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="11"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="12"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
     </row>
     <row r="14" spans="3:17" x14ac:dyDescent="0.95">
       <c r="C14" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E14" s="13">
+        <v>20</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14" s="9">
         <v>3</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G14" s="13">
+        <v>15</v>
+      </c>
+      <c r="G14" s="9">
         <v>33</v>
       </c>
-      <c r="H14" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K14" s="17"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="18"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
+      <c r="H14" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K14" s="11"/>
+      <c r="L14" s="7"/>
+      <c r="M14" s="12"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
     </row>
     <row r="15" spans="3:17" x14ac:dyDescent="0.95">
       <c r="C15" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D15" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="E15" s="13">
+        <v>20</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15" s="9">
         <v>3</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G15" s="13">
+        <v>15</v>
+      </c>
+      <c r="G15" s="9">
         <v>50</v>
       </c>
-      <c r="H15" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K15" s="17"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="18"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
+      <c r="H15" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K15" s="11"/>
+      <c r="L15" s="7"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
     </row>
     <row r="16" spans="3:17" x14ac:dyDescent="0.95">
       <c r="C16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="13">
+        <v>20</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E16" s="9">
         <v>9</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G16" s="13">
+        <v>15</v>
+      </c>
+      <c r="G16" s="9">
         <v>40</v>
       </c>
-      <c r="H16" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K16" s="17"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="18"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
+      <c r="H16" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K16" s="11"/>
+      <c r="L16" s="13"/>
+      <c r="M16" s="12"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
     </row>
     <row r="17" spans="3:17" x14ac:dyDescent="0.95">
       <c r="C17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D17" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="13">
+        <v>20</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17" s="9">
         <v>1</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G17" s="13">
+        <v>17</v>
+      </c>
+      <c r="G17" s="9">
         <v>45</v>
       </c>
-      <c r="H17" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K17" s="17"/>
-      <c r="L17" s="19"/>
-      <c r="M17" s="18"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
+      <c r="H17" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K17" s="11"/>
+      <c r="L17" s="13"/>
+      <c r="M17" s="12"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
     </row>
     <row r="18" spans="3:17" x14ac:dyDescent="0.95">
       <c r="C18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="E18" s="13">
+        <v>20</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E18" s="9">
         <v>8</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G18" s="13">
+        <v>15</v>
+      </c>
+      <c r="G18" s="9">
         <v>41</v>
       </c>
-      <c r="H18" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="K18" s="17"/>
-      <c r="L18" s="19"/>
-      <c r="M18" s="18"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
+      <c r="H18" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="K18" s="11"/>
+      <c r="L18" s="13"/>
+      <c r="M18" s="12"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
     </row>
     <row r="19" spans="3:17" x14ac:dyDescent="0.95">
       <c r="C19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="13">
+        <v>24</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19" s="9">
         <v>9</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G19" s="13">
+        <v>15</v>
+      </c>
+      <c r="G19" s="9">
         <v>117</v>
       </c>
-      <c r="H19" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="K19" s="17"/>
-      <c r="L19" s="19"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
+      <c r="H19" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="K19" s="11"/>
+      <c r="L19" s="13"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
     </row>
     <row r="20" spans="3:17" x14ac:dyDescent="0.95">
       <c r="C20" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E20" s="13">
+        <v>24</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="9">
         <v>11</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G20" s="13">
+        <v>15</v>
+      </c>
+      <c r="G20" s="9">
         <v>126</v>
       </c>
-      <c r="H20" s="16" t="s">
-        <v>35</v>
+      <c r="H20" s="21" t="s">
+        <v>19</v>
       </c>
       <c r="M20" s="4"/>
       <c r="N20" s="4"/>
@@ -1255,22 +1909,22 @@
     </row>
     <row r="21" spans="3:17" x14ac:dyDescent="0.95">
       <c r="C21" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E21" s="13">
+        <v>24</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E21" s="9">
         <v>17</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G21" s="13">
+        <v>17</v>
+      </c>
+      <c r="G21" s="9">
         <v>132</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="M21" s="4"/>
       <c r="N21" s="4"/>
@@ -1280,22 +1934,22 @@
     </row>
     <row r="22" spans="3:17" x14ac:dyDescent="0.95">
       <c r="C22" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D22" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E22" s="13">
+        <v>24</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E22" s="9">
         <v>14</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G22" s="13">
+        <v>15</v>
+      </c>
+      <c r="G22" s="9">
         <v>113</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>43</v>
+        <v>27</v>
       </c>
       <c r="M22" s="4"/>
       <c r="N22" s="4"/>
@@ -1305,62 +1959,62 @@
     </row>
     <row r="23" spans="3:17" x14ac:dyDescent="0.95">
       <c r="C23" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D23" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="13">
+        <v>24</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23" s="9">
         <v>11</v>
       </c>
       <c r="F23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G23" s="13">
+        <v>15</v>
+      </c>
+      <c r="G23" s="9">
         <v>122</v>
       </c>
-      <c r="H23" s="16" t="s">
-        <v>35</v>
+      <c r="H23" s="21" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="24" spans="3:17" x14ac:dyDescent="0.95">
       <c r="C24" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D24" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E24" s="13">
+        <v>24</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E24" s="9">
         <v>4</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G24" s="13">
+        <v>15</v>
+      </c>
+      <c r="G24" s="9">
         <v>107</v>
       </c>
-      <c r="H24" s="16" t="s">
-        <v>35</v>
+      <c r="H24" s="21" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="25" spans="3:17" x14ac:dyDescent="0.95">
       <c r="C25" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="12" t="s">
-        <v>42</v>
-      </c>
-      <c r="E25" s="13">
+        <v>24</v>
+      </c>
+      <c r="D25" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E25" s="9">
         <v>4</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="G25" s="13">
+        <v>15</v>
+      </c>
+      <c r="G25" s="9">
         <v>115</v>
       </c>
-      <c r="H25" s="16" t="s">
-        <v>35</v>
+      <c r="H25" s="21" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -1375,584 +2029,656 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="C2:S47"/>
+  <dimension ref="B2:X47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="V14" sqref="V14"/>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4:R20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="24.9" x14ac:dyDescent="0.8"/>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="30" x14ac:dyDescent="0.95"/>
   <cols>
     <col min="3" max="3" width="22.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="20.1640625" style="1" customWidth="1"/>
-    <col min="5" max="7" width="11.5" style="1"/>
-    <col min="8" max="8" width="22.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.27734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.5" style="1"/>
+    <col min="7" max="7" width="18.27734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="40.38671875" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="20.1640625" style="1" customWidth="1"/>
     <col min="10" max="12" width="11.5" style="1"/>
     <col min="13" max="13" width="22.5" style="1" customWidth="1"/>
     <col min="14" max="14" width="20.1640625" style="1" customWidth="1"/>
     <col min="15" max="18" width="11.5" style="1"/>
-    <col min="19" max="19" width="14" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.27734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.609375" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.5" style="4"/>
+    <col min="23" max="23" width="18.27734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="40.38671875" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="3:19" ht="69" customHeight="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="C2" s="2" t="s">
+    <row r="2" spans="2:18" ht="69" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.95">
+      <c r="B4" s="14"/>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="11"/>
+      <c r="N4" s="11"/>
+      <c r="O4" s="11"/>
+      <c r="P4" s="11"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.95">
+      <c r="B5" s="14"/>
+      <c r="C5" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="4">
+        <v>2</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G5" s="4">
+        <v>44</v>
+      </c>
+      <c r="H5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.95">
+      <c r="B6" s="14"/>
+      <c r="C6" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="4">
+        <v>2</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="4">
+        <v>45</v>
+      </c>
+      <c r="H6" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="11"/>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.95">
+      <c r="B7" s="14"/>
+      <c r="C7" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" s="4">
+        <v>1</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="4">
+        <v>40</v>
+      </c>
+      <c r="H7" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="7"/>
+      <c r="N7" s="7"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="11"/>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.95">
+      <c r="B8" s="14"/>
+      <c r="C8" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="4">
+        <v>1</v>
+      </c>
+      <c r="F8" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="6" spans="3:19" ht="30" x14ac:dyDescent="0.95">
-      <c r="C6" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="3" t="s">
+      <c r="G8" s="4">
+        <v>36</v>
+      </c>
+      <c r="H8" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="7"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="11"/>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.95">
+      <c r="B9" s="14"/>
+      <c r="C9" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="4"/>
-      <c r="S6" s="1" t="s">
+      <c r="D9" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="4">
+        <v>52</v>
+      </c>
+      <c r="H9" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="7"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="11"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.95">
+      <c r="B10" s="14"/>
+      <c r="C10" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="4">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="4">
+        <v>51</v>
+      </c>
+      <c r="H10" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="7"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="11"/>
+    </row>
+    <row r="11" spans="2:18" x14ac:dyDescent="0.95">
+      <c r="B11" s="14"/>
+      <c r="C11" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G11" s="4">
+        <v>44</v>
+      </c>
+      <c r="H11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="7"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="11"/>
+    </row>
+    <row r="12" spans="2:18" x14ac:dyDescent="0.95">
+      <c r="B12" s="14"/>
+      <c r="C12" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="7" spans="3:19" ht="30" x14ac:dyDescent="0.95">
-      <c r="C7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="I7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="L7" s="4"/>
-      <c r="M7" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="Q7" s="4"/>
-    </row>
-    <row r="8" spans="3:19" ht="30" x14ac:dyDescent="0.95">
-      <c r="C8" s="5">
-        <v>41648</v>
-      </c>
-      <c r="D8" s="3" t="s">
+      <c r="D12" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="4">
         <v>2</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F12" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="4">
+        <v>157</v>
+      </c>
+      <c r="H12" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="7"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="11"/>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.95">
+      <c r="B13" s="14"/>
+      <c r="C13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E13" s="4">
         <v>1</v>
       </c>
-      <c r="F8" s="3">
-        <v>40</v>
-      </c>
-      <c r="G8" s="4"/>
-      <c r="H8" s="5">
-        <v>41647</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="6">
-        <v>42074</v>
-      </c>
-      <c r="N8" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="P8" s="3">
-        <v>8</v>
-      </c>
-      <c r="Q8" s="4"/>
-    </row>
-    <row r="9" spans="3:19" ht="30" x14ac:dyDescent="0.95">
-      <c r="C9" s="5">
-        <v>41648</v>
-      </c>
-      <c r="D9" s="3" t="s">
+      <c r="F13" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G13" s="4">
+        <v>146</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="7"/>
+      <c r="O13" s="7"/>
+      <c r="P13" s="7"/>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="11"/>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.95">
+      <c r="B14" s="14"/>
+      <c r="C14" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="4">
         <v>2</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="3">
+      <c r="F14" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="7"/>
+      <c r="O14" s="7"/>
+      <c r="P14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="R14" s="11"/>
+    </row>
+    <row r="15" spans="2:18" x14ac:dyDescent="0.95">
+      <c r="B15" s="14"/>
+      <c r="C15" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E15" s="4">
+        <v>2</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G15" s="4">
+        <v>218</v>
+      </c>
+      <c r="H15" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="7"/>
+      <c r="N15" s="7"/>
+      <c r="O15" s="7"/>
+      <c r="P15" s="7"/>
+      <c r="Q15" s="7"/>
+      <c r="R15" s="11"/>
+    </row>
+    <row r="16" spans="2:18" x14ac:dyDescent="0.95">
+      <c r="B16" s="14"/>
+      <c r="C16" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="4">
+        <v>2</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="7"/>
+      <c r="N16" s="7"/>
+      <c r="O16" s="7"/>
+      <c r="P16" s="7"/>
+      <c r="Q16" s="7"/>
+      <c r="R16" s="11"/>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.95">
+      <c r="B17" s="14"/>
+      <c r="C17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E17" s="4">
+        <v>2</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="G17" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H17" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="7"/>
+      <c r="N17" s="7"/>
+      <c r="O17" s="7"/>
+      <c r="P17" s="7"/>
+      <c r="Q17" s="7"/>
+      <c r="R17" s="11"/>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.95">
+      <c r="B18" s="14"/>
+      <c r="C18" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="4"/>
-      <c r="H9" s="5">
-        <v>41647</v>
-      </c>
-      <c r="I9" s="3" t="s">
+      <c r="D18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="4">
         <v>2</v>
       </c>
-      <c r="J9" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K9" s="3">
-        <v>44</v>
-      </c>
-      <c r="L9" s="4"/>
-      <c r="M9" s="6">
-        <v>42102</v>
-      </c>
-      <c r="N9" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="4"/>
-    </row>
-    <row r="10" spans="3:19" ht="30" x14ac:dyDescent="0.95">
-      <c r="C10" s="5">
-        <v>41711</v>
-      </c>
-      <c r="D10" s="3" t="s">
+      <c r="F18" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G18" s="4">
+        <v>7</v>
+      </c>
+      <c r="H18" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="7"/>
+      <c r="N18" s="7"/>
+      <c r="O18" s="7"/>
+      <c r="P18" s="7"/>
+      <c r="Q18" s="7"/>
+      <c r="R18" s="11"/>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.95">
+      <c r="B19" s="14"/>
+      <c r="C19" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E19" s="4">
         <v>2</v>
       </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F10" s="3">
-        <v>51</v>
-      </c>
-      <c r="G10" s="4"/>
-      <c r="H10" s="5">
-        <v>41647</v>
-      </c>
-      <c r="I10" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K10" s="3">
+      <c r="F19" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G19" s="4">
         <v>7</v>
       </c>
-      <c r="L10" s="4"/>
-      <c r="M10" s="6">
-        <v>42130</v>
-      </c>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="4"/>
-    </row>
-    <row r="11" spans="3:19" ht="30" x14ac:dyDescent="0.95">
-      <c r="C11" s="5">
-        <v>41711</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F11" s="3">
-        <v>44</v>
-      </c>
-      <c r="G11" s="4"/>
-      <c r="H11" s="5">
-        <v>41647</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K11" s="3">
-        <v>45</v>
-      </c>
-      <c r="L11" s="4"/>
-      <c r="M11" s="6">
-        <v>42142</v>
-      </c>
-      <c r="N11" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O11" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P11" s="3">
-        <v>182</v>
-      </c>
-      <c r="Q11" s="4"/>
-    </row>
-    <row r="12" spans="3:19" ht="30" x14ac:dyDescent="0.95">
-      <c r="C12" s="5">
-        <v>41711</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="F12" s="3">
-        <v>146</v>
-      </c>
-      <c r="G12" s="4"/>
-      <c r="H12" s="5">
-        <v>41647</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="4"/>
-      <c r="M12" s="6">
-        <v>42164</v>
-      </c>
-      <c r="N12" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P12" s="3">
-        <v>29</v>
-      </c>
-      <c r="Q12" s="4"/>
-    </row>
-    <row r="13" spans="3:19" ht="30" x14ac:dyDescent="0.95">
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="5">
-        <v>41647</v>
-      </c>
-      <c r="I13" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K13" s="9">
-        <v>157</v>
-      </c>
-      <c r="L13" s="4"/>
-      <c r="M13" s="6">
-        <v>42193</v>
-      </c>
-      <c r="N13" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O13" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="P13" s="3">
-        <v>115</v>
-      </c>
-      <c r="Q13" s="4"/>
-    </row>
-    <row r="14" spans="3:19" ht="30" x14ac:dyDescent="0.95">
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="5">
-        <v>41647</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-      <c r="L14" s="4"/>
-      <c r="M14" s="6">
-        <v>42193</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="O14" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="P14" s="3">
-        <v>190</v>
-      </c>
-      <c r="Q14" s="4"/>
-    </row>
-    <row r="15" spans="3:19" ht="30" x14ac:dyDescent="0.95">
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="5">
-        <v>41688</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="J15" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K15" s="9">
-        <v>218</v>
-      </c>
-      <c r="L15" s="4"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
-      <c r="O15" s="4"/>
-      <c r="P15" s="4"/>
-      <c r="Q15" s="4"/>
-    </row>
-    <row r="16" spans="3:19" ht="30" x14ac:dyDescent="0.95">
-      <c r="C16" s="4"/>
-      <c r="D16" s="4"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="5">
-        <v>41688</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K16" s="3">
-        <v>7</v>
-      </c>
-      <c r="L16" s="4"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
-      <c r="O16" s="4"/>
-      <c r="P16" s="4"/>
-      <c r="Q16" s="4"/>
-    </row>
-    <row r="17" spans="3:17" ht="30" x14ac:dyDescent="0.95">
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="5">
-        <v>41688</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="J17" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="K17" s="3">
-        <v>52</v>
-      </c>
-      <c r="L17" s="4"/>
-      <c r="M17" s="4"/>
-      <c r="N17" s="4"/>
-      <c r="O17" s="4"/>
-      <c r="P17" s="4"/>
-      <c r="Q17" s="4"/>
-    </row>
-    <row r="18" spans="3:17" ht="30" x14ac:dyDescent="0.95">
-      <c r="C18" s="4"/>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-      <c r="J18" s="4"/>
-      <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
-      <c r="M18" s="4"/>
-      <c r="N18" s="4"/>
-      <c r="O18" s="4"/>
-      <c r="P18" s="4"/>
-      <c r="Q18" s="4"/>
-    </row>
-    <row r="19" spans="3:17" ht="30" x14ac:dyDescent="0.95">
-      <c r="C19" s="4"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-      <c r="J19" s="4"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="N19" s="4"/>
-      <c r="O19" s="4"/>
-      <c r="P19" s="4"/>
-      <c r="Q19" s="4"/>
-    </row>
-    <row r="20" spans="3:17" ht="30" x14ac:dyDescent="0.95">
+      <c r="H19" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="7"/>
+      <c r="N19" s="7"/>
+      <c r="O19" s="7"/>
+      <c r="P19" s="7"/>
+      <c r="Q19" s="7"/>
+      <c r="R19" s="11"/>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.95">
       <c r="C20" s="4"/>
       <c r="D20" s="4"/>
       <c r="E20" s="4"/>
       <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-      <c r="J20" s="4"/>
-      <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
-      <c r="M20" s="4"/>
-      <c r="N20" s="4"/>
-      <c r="O20" s="4"/>
-      <c r="P20" s="4"/>
-      <c r="Q20" s="4"/>
-    </row>
-    <row r="21" spans="3:17" ht="30" x14ac:dyDescent="0.95">
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+      <c r="R20" s="11"/>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.95">
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
       <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-      <c r="J21" s="4"/>
-      <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
-      <c r="M21" s="4"/>
-      <c r="N21" s="4"/>
-      <c r="O21" s="4"/>
-      <c r="P21" s="4"/>
-      <c r="Q21" s="4"/>
-    </row>
-    <row r="22" spans="3:17" ht="30.9" x14ac:dyDescent="1.1000000000000001">
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="18"/>
+      <c r="L21" s="18"/>
+      <c r="M21" s="18"/>
+      <c r="N21" s="18"/>
+      <c r="O21" s="18"/>
+      <c r="P21" s="18"/>
+      <c r="Q21" s="18"/>
+    </row>
+    <row r="22" spans="2:18" ht="30.9" x14ac:dyDescent="1.1000000000000001">
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
       <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="7"/>
-      <c r="I22" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J22" s="4"/>
-      <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
-      <c r="M22" s="4"/>
-      <c r="N22" s="4"/>
-      <c r="O22" s="4"/>
-      <c r="P22" s="4"/>
-      <c r="Q22" s="4"/>
-    </row>
-    <row r="23" spans="3:17" ht="30" x14ac:dyDescent="0.95">
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="18"/>
+      <c r="L22" s="18"/>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.95">
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="4"/>
-      <c r="J23" s="4"/>
-      <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
-      <c r="M23" s="4"/>
-      <c r="N23" s="4"/>
-      <c r="O23" s="4"/>
-      <c r="P23" s="4"/>
-      <c r="Q23" s="4"/>
-    </row>
-    <row r="24" spans="3:17" ht="30" x14ac:dyDescent="0.95">
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.95">
       <c r="C24" s="4"/>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="4"/>
-      <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
-      <c r="O24" s="4"/>
-      <c r="P24" s="4"/>
-      <c r="Q24" s="4"/>
-    </row>
-    <row r="25" spans="3:17" ht="30" x14ac:dyDescent="0.95">
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.95">
       <c r="C25" s="4"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="4"/>
-      <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
-      <c r="M25" s="4"/>
-      <c r="N25" s="4"/>
-      <c r="O25" s="4"/>
-      <c r="P25" s="4"/>
-      <c r="Q25" s="4"/>
-    </row>
-    <row r="26" spans="3:17" ht="30" x14ac:dyDescent="0.95">
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.95">
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="4"/>
-      <c r="K26" s="4"/>
-      <c r="L26" s="4"/>
-      <c r="M26" s="4"/>
-      <c r="N26" s="4"/>
-      <c r="O26" s="4"/>
-      <c r="P26" s="4"/>
-      <c r="Q26" s="4"/>
-    </row>
-    <row r="27" spans="3:17" ht="30" x14ac:dyDescent="0.95">
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.95">
       <c r="C27" s="3" t="s">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
@@ -1969,15 +2695,15 @@
       <c r="P27" s="4"/>
       <c r="Q27" s="4"/>
     </row>
-    <row r="28" spans="3:17" ht="30" x14ac:dyDescent="0.95">
+    <row r="28" spans="2:18" x14ac:dyDescent="0.95">
       <c r="C28" s="3" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="F28" s="4"/>
       <c r="G28" s="4"/>
@@ -1992,12 +2718,12 @@
       <c r="P28" s="4"/>
       <c r="Q28" s="4"/>
     </row>
-    <row r="29" spans="3:17" ht="30" x14ac:dyDescent="0.95">
+    <row r="29" spans="2:18" x14ac:dyDescent="0.95">
       <c r="C29" s="5">
         <v>28498</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E29" s="3">
         <v>37</v>
@@ -2015,12 +2741,12 @@
       <c r="P29" s="4"/>
       <c r="Q29" s="4"/>
     </row>
-    <row r="30" spans="3:17" ht="30" x14ac:dyDescent="0.95">
+    <row r="30" spans="2:18" x14ac:dyDescent="0.95">
       <c r="C30" s="5">
         <v>28498</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="E30" s="3"/>
       <c r="F30" s="4"/>
@@ -2036,12 +2762,12 @@
       <c r="P30" s="4"/>
       <c r="Q30" s="4"/>
     </row>
-    <row r="31" spans="3:17" ht="30" x14ac:dyDescent="0.95">
+    <row r="31" spans="2:18" x14ac:dyDescent="0.95">
       <c r="C31" s="5">
         <v>28498</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="E31" s="3">
         <v>48</v>
@@ -2059,12 +2785,12 @@
       <c r="P31" s="4"/>
       <c r="Q31" s="4"/>
     </row>
-    <row r="32" spans="3:17" ht="30" x14ac:dyDescent="0.95">
+    <row r="32" spans="2:18" x14ac:dyDescent="0.95">
       <c r="C32" s="5">
         <v>28498</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>21</v>
+        <v>6</v>
       </c>
       <c r="E32" s="3">
         <v>52</v>
@@ -2082,12 +2808,12 @@
       <c r="P32" s="4"/>
       <c r="Q32" s="4"/>
     </row>
-    <row r="33" spans="3:17" ht="30" x14ac:dyDescent="0.95">
+    <row r="33" spans="3:17" x14ac:dyDescent="0.95">
       <c r="C33" s="5">
         <v>28498</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="E33" s="3">
         <v>35</v>
@@ -2105,7 +2831,7 @@
       <c r="P33" s="4"/>
       <c r="Q33" s="4"/>
     </row>
-    <row r="34" spans="3:17" ht="30" x14ac:dyDescent="0.95">
+    <row r="34" spans="3:17" x14ac:dyDescent="0.95">
       <c r="C34" s="4"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
@@ -2122,7 +2848,7 @@
       <c r="P34" s="4"/>
       <c r="Q34" s="4"/>
     </row>
-    <row r="35" spans="3:17" ht="30" x14ac:dyDescent="0.95">
+    <row r="35" spans="3:17" x14ac:dyDescent="0.95">
       <c r="C35" s="4"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
@@ -2139,7 +2865,7 @@
       <c r="P35" s="4"/>
       <c r="Q35" s="4"/>
     </row>
-    <row r="36" spans="3:17" ht="30" x14ac:dyDescent="0.95">
+    <row r="36" spans="3:17" x14ac:dyDescent="0.95">
       <c r="C36" s="4"/>
       <c r="D36" s="4"/>
       <c r="E36" s="4"/>
@@ -2156,7 +2882,7 @@
       <c r="P36" s="4"/>
       <c r="Q36" s="4"/>
     </row>
-    <row r="37" spans="3:17" ht="30" x14ac:dyDescent="0.95">
+    <row r="37" spans="3:17" x14ac:dyDescent="0.95">
       <c r="E37" s="4"/>
       <c r="F37" s="4"/>
       <c r="G37" s="4"/>
@@ -2171,7 +2897,7 @@
       <c r="P37" s="4"/>
       <c r="Q37" s="4"/>
     </row>
-    <row r="38" spans="3:17" ht="30" x14ac:dyDescent="0.95">
+    <row r="38" spans="3:17" x14ac:dyDescent="0.95">
       <c r="C38" s="4"/>
       <c r="D38" s="4"/>
       <c r="E38" s="4"/>
@@ -2188,7 +2914,7 @@
       <c r="P38" s="4"/>
       <c r="Q38" s="4"/>
     </row>
-    <row r="39" spans="3:17" ht="30" x14ac:dyDescent="0.95">
+    <row r="39" spans="3:17" x14ac:dyDescent="0.95">
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
       <c r="L39" s="4"/>
@@ -2198,7 +2924,7 @@
       <c r="P39" s="4"/>
       <c r="Q39" s="4"/>
     </row>
-    <row r="40" spans="3:17" ht="30" x14ac:dyDescent="0.95">
+    <row r="40" spans="3:17" x14ac:dyDescent="0.95">
       <c r="F40" s="4"/>
       <c r="G40" s="4"/>
       <c r="L40" s="4"/>
@@ -2208,7 +2934,7 @@
       <c r="P40" s="4"/>
       <c r="Q40" s="4"/>
     </row>
-    <row r="41" spans="3:17" ht="30" x14ac:dyDescent="0.95">
+    <row r="41" spans="3:17" x14ac:dyDescent="0.95">
       <c r="F41" s="4"/>
       <c r="G41" s="4"/>
       <c r="L41" s="4"/>
@@ -2218,34 +2944,34 @@
       <c r="P41" s="4"/>
       <c r="Q41" s="4"/>
     </row>
-    <row r="42" spans="3:17" ht="30" x14ac:dyDescent="0.95">
+    <row r="42" spans="3:17" x14ac:dyDescent="0.95">
       <c r="F42" s="4"/>
       <c r="G42" s="4"/>
       <c r="L42" s="4"/>
       <c r="Q42" s="4"/>
     </row>
-    <row r="43" spans="3:17" ht="30" x14ac:dyDescent="0.95">
+    <row r="43" spans="3:17" x14ac:dyDescent="0.95">
       <c r="F43" s="4"/>
       <c r="G43" s="4"/>
       <c r="L43" s="4"/>
       <c r="Q43" s="4"/>
     </row>
-    <row r="44" spans="3:17" ht="30" x14ac:dyDescent="0.95">
+    <row r="44" spans="3:17" x14ac:dyDescent="0.95">
       <c r="G44" s="4"/>
       <c r="L44" s="4"/>
       <c r="Q44" s="4"/>
     </row>
-    <row r="45" spans="3:17" ht="30" x14ac:dyDescent="0.95">
+    <row r="45" spans="3:17" x14ac:dyDescent="0.95">
       <c r="G45" s="4"/>
       <c r="L45" s="4"/>
       <c r="Q45" s="4"/>
     </row>
-    <row r="46" spans="3:17" ht="30" x14ac:dyDescent="0.95">
+    <row r="46" spans="3:17" x14ac:dyDescent="0.95">
       <c r="G46" s="4"/>
       <c r="L46" s="4"/>
       <c r="Q46" s="4"/>
     </row>
-    <row r="47" spans="3:17" ht="30" x14ac:dyDescent="0.95">
+    <row r="47" spans="3:17" x14ac:dyDescent="0.95">
       <c r="G47" s="4"/>
       <c r="L47" s="4"/>
       <c r="Q47" s="4"/>
@@ -2253,7 +2979,836 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
-  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5229927D-E7EB-42C7-AE14-61E50C120592}">
+  <dimension ref="B2:X47"/>
+  <sheetViews>
+    <sheetView zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.5" defaultRowHeight="30" x14ac:dyDescent="0.95"/>
+  <cols>
+    <col min="3" max="3" width="22.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="29.27734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="11.5" style="1"/>
+    <col min="7" max="7" width="18.27734375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.94140625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="20.1640625" style="1" customWidth="1"/>
+    <col min="10" max="12" width="11.5" style="1"/>
+    <col min="13" max="13" width="22.5" style="1" customWidth="1"/>
+    <col min="14" max="14" width="20.1640625" style="1" customWidth="1"/>
+    <col min="15" max="18" width="11.5" style="1"/>
+    <col min="19" max="19" width="16.44140625" style="4" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="29.27734375" style="8" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="8.609375" style="4" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.5" style="4"/>
+    <col min="23" max="23" width="18.27734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="40.38671875" style="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17" ht="69" customHeight="1" x14ac:dyDescent="1.1499999999999999">
+      <c r="C2" s="2"/>
+    </row>
+    <row r="4" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="B4" s="14"/>
+      <c r="C4" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="8"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15"/>
+      <c r="K4" s="15"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="15"/>
+      <c r="N4" s="15"/>
+      <c r="O4" s="15"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="15"/>
+    </row>
+    <row r="5" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="B5" s="14"/>
+      <c r="C5" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" s="4">
+        <v>3</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="21"/>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15"/>
+      <c r="K5" s="15"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="15"/>
+      <c r="N5" s="15"/>
+      <c r="O5" s="15"/>
+      <c r="P5" s="15"/>
+      <c r="Q5" s="15"/>
+    </row>
+    <row r="6" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="B6" s="14"/>
+      <c r="C6" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E6" s="4">
+        <v>3</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="4">
+        <v>182</v>
+      </c>
+      <c r="H6" s="21"/>
+      <c r="I6" s="16"/>
+      <c r="J6" s="16"/>
+      <c r="K6" s="16"/>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="16"/>
+    </row>
+    <row r="7" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="B7" s="14"/>
+      <c r="C7" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="4">
+        <v>3</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G7" s="4">
+        <v>115</v>
+      </c>
+      <c r="H7" s="21"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7" s="16"/>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="16"/>
+    </row>
+    <row r="8" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="B8" s="14"/>
+      <c r="C8" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="4">
+        <v>3</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="4">
+        <v>190</v>
+      </c>
+      <c r="H8" s="21"/>
+      <c r="I8" s="16"/>
+      <c r="J8" s="16"/>
+      <c r="K8" s="16"/>
+      <c r="L8" s="16"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="16"/>
+    </row>
+    <row r="9" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="B9" s="14"/>
+      <c r="C9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="4">
+        <v>3</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="4">
+        <v>29</v>
+      </c>
+      <c r="H9" s="21"/>
+      <c r="I9" s="16"/>
+      <c r="J9" s="16"/>
+      <c r="K9" s="16"/>
+      <c r="L9" s="16"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="16"/>
+      <c r="O9" s="16"/>
+      <c r="P9" s="16"/>
+      <c r="Q9" s="16"/>
+    </row>
+    <row r="10" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="B10" s="14"/>
+      <c r="C10" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="4">
+        <v>3</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="4">
+        <v>8</v>
+      </c>
+      <c r="H10" s="21"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="16"/>
+      <c r="O10" s="16"/>
+      <c r="P10" s="16"/>
+      <c r="Q10" s="16"/>
+    </row>
+    <row r="11" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="B11" s="14"/>
+      <c r="C11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="H11" s="21"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="16"/>
+      <c r="O11" s="16"/>
+      <c r="P11" s="16"/>
+      <c r="Q11" s="16"/>
+    </row>
+    <row r="12" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="B12" s="14"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="16"/>
+      <c r="L12" s="16"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="16"/>
+      <c r="O12" s="16"/>
+      <c r="P12" s="16"/>
+      <c r="Q12" s="16"/>
+    </row>
+    <row r="13" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="B13" s="14"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="21"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+    </row>
+    <row r="14" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="B14" s="14"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="21"/>
+      <c r="H14" s="21"/>
+      <c r="I14" s="16"/>
+      <c r="J14" s="16"/>
+      <c r="K14" s="16"/>
+      <c r="L14" s="16"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="16"/>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16"/>
+      <c r="Q14" s="16"/>
+    </row>
+    <row r="15" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="B15" s="14"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="16"/>
+      <c r="J15" s="16"/>
+      <c r="K15" s="16"/>
+      <c r="L15" s="16"/>
+      <c r="M15" s="16"/>
+      <c r="N15" s="16"/>
+      <c r="O15" s="16"/>
+      <c r="P15" s="16"/>
+      <c r="Q15" s="16"/>
+    </row>
+    <row r="16" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="B16" s="14"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="8"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="21"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="16"/>
+      <c r="L16" s="16"/>
+      <c r="M16" s="16"/>
+      <c r="N16" s="16"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
+    </row>
+    <row r="17" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="B17" s="14"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="21"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+      <c r="N17" s="16"/>
+      <c r="O17" s="16"/>
+      <c r="P17" s="16"/>
+      <c r="Q17" s="16"/>
+    </row>
+    <row r="18" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="B18" s="14"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="8"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="16"/>
+      <c r="K18" s="16"/>
+      <c r="L18" s="16"/>
+      <c r="M18" s="16"/>
+      <c r="N18" s="16"/>
+      <c r="O18" s="16"/>
+      <c r="P18" s="16"/>
+      <c r="Q18" s="16"/>
+    </row>
+    <row r="19" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="B19" s="14"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="16"/>
+      <c r="K19" s="16"/>
+      <c r="L19" s="16"/>
+      <c r="M19" s="16"/>
+      <c r="N19" s="16"/>
+      <c r="O19" s="16"/>
+      <c r="P19" s="16"/>
+      <c r="Q19" s="16"/>
+    </row>
+    <row r="20" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="18"/>
+      <c r="H20" s="18"/>
+      <c r="I20" s="18"/>
+      <c r="J20" s="18"/>
+      <c r="K20" s="16"/>
+      <c r="L20" s="16"/>
+      <c r="M20" s="16"/>
+      <c r="N20" s="16"/>
+      <c r="O20" s="16"/>
+      <c r="P20" s="16"/>
+      <c r="Q20" s="16"/>
+    </row>
+    <row r="21" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="18"/>
+      <c r="H21" s="18"/>
+      <c r="I21" s="18"/>
+      <c r="J21" s="18"/>
+      <c r="K21" s="16"/>
+      <c r="L21" s="16"/>
+      <c r="M21" s="16"/>
+      <c r="N21" s="16"/>
+      <c r="O21" s="16"/>
+      <c r="P21" s="16"/>
+      <c r="Q21" s="16"/>
+    </row>
+    <row r="22" spans="2:17" ht="30.9" x14ac:dyDescent="1.1000000000000001">
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="19"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="18"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+      <c r="N22" s="16"/>
+      <c r="O22" s="16"/>
+      <c r="P22" s="16"/>
+      <c r="Q22" s="16"/>
+    </row>
+    <row r="23" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="18"/>
+      <c r="K23" s="18"/>
+      <c r="L23" s="18"/>
+      <c r="M23" s="18"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+    </row>
+    <row r="24" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="18"/>
+      <c r="H24" s="18"/>
+      <c r="I24" s="18"/>
+      <c r="J24" s="18"/>
+      <c r="K24" s="18"/>
+      <c r="L24" s="18"/>
+      <c r="M24" s="18"/>
+      <c r="N24" s="18"/>
+      <c r="O24" s="18"/>
+      <c r="P24" s="18"/>
+      <c r="Q24" s="18"/>
+    </row>
+    <row r="25" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="18"/>
+      <c r="H25" s="18"/>
+      <c r="I25" s="18"/>
+      <c r="J25" s="18"/>
+      <c r="K25" s="18"/>
+      <c r="L25" s="18"/>
+      <c r="M25" s="18"/>
+      <c r="N25" s="18"/>
+      <c r="O25" s="18"/>
+      <c r="P25" s="18"/>
+      <c r="Q25" s="18"/>
+    </row>
+    <row r="26" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="18"/>
+      <c r="H26" s="18"/>
+      <c r="I26" s="18"/>
+      <c r="J26" s="18"/>
+      <c r="K26" s="18"/>
+      <c r="L26" s="18"/>
+      <c r="M26" s="18"/>
+      <c r="N26" s="18"/>
+      <c r="O26" s="18"/>
+      <c r="P26" s="18"/>
+      <c r="Q26" s="18"/>
+    </row>
+    <row r="27" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="C27" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="4"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="N27" s="4"/>
+      <c r="O27" s="4"/>
+      <c r="P27" s="4"/>
+      <c r="Q27" s="4"/>
+    </row>
+    <row r="28" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="C28" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="N28" s="4"/>
+      <c r="O28" s="4"/>
+      <c r="P28" s="4"/>
+      <c r="Q28" s="4"/>
+    </row>
+    <row r="29" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="C29" s="5">
+        <v>28498</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E29" s="3">
+        <v>37</v>
+      </c>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+      <c r="N29" s="4"/>
+      <c r="O29" s="4"/>
+      <c r="P29" s="4"/>
+      <c r="Q29" s="4"/>
+    </row>
+    <row r="30" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="C30" s="5">
+        <v>28498</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="3"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+      <c r="N30" s="4"/>
+      <c r="O30" s="4"/>
+      <c r="P30" s="4"/>
+      <c r="Q30" s="4"/>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="C31" s="5">
+        <v>28498</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="3">
+        <v>48</v>
+      </c>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.95">
+      <c r="C32" s="5">
+        <v>28498</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="3">
+        <v>52</v>
+      </c>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+      <c r="N32" s="4"/>
+      <c r="O32" s="4"/>
+      <c r="P32" s="4"/>
+      <c r="Q32" s="4"/>
+    </row>
+    <row r="33" spans="3:17" x14ac:dyDescent="0.95">
+      <c r="C33" s="5">
+        <v>28498</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="3">
+        <v>35</v>
+      </c>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+      <c r="N33" s="4"/>
+      <c r="O33" s="4"/>
+      <c r="P33" s="4"/>
+      <c r="Q33" s="4"/>
+    </row>
+    <row r="34" spans="3:17" x14ac:dyDescent="0.95">
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+      <c r="N34" s="4"/>
+      <c r="O34" s="4"/>
+      <c r="P34" s="4"/>
+      <c r="Q34" s="4"/>
+    </row>
+    <row r="35" spans="3:17" x14ac:dyDescent="0.95">
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+      <c r="N35" s="4"/>
+      <c r="O35" s="4"/>
+      <c r="P35" s="4"/>
+      <c r="Q35" s="4"/>
+    </row>
+    <row r="36" spans="3:17" x14ac:dyDescent="0.95">
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+      <c r="N36" s="4"/>
+      <c r="O36" s="4"/>
+      <c r="P36" s="4"/>
+      <c r="Q36" s="4"/>
+    </row>
+    <row r="37" spans="3:17" x14ac:dyDescent="0.95">
+      <c r="E37" s="4"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+      <c r="N37" s="4"/>
+      <c r="O37" s="4"/>
+      <c r="P37" s="4"/>
+      <c r="Q37" s="4"/>
+    </row>
+    <row r="38" spans="3:17" x14ac:dyDescent="0.95">
+      <c r="C38" s="4"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="4"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+      <c r="N38" s="4"/>
+      <c r="O38" s="4"/>
+      <c r="P38" s="4"/>
+      <c r="Q38" s="4"/>
+    </row>
+    <row r="39" spans="3:17" x14ac:dyDescent="0.95">
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+      <c r="N39" s="4"/>
+      <c r="O39" s="4"/>
+      <c r="P39" s="4"/>
+      <c r="Q39" s="4"/>
+    </row>
+    <row r="40" spans="3:17" x14ac:dyDescent="0.95">
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+      <c r="N40" s="4"/>
+      <c r="O40" s="4"/>
+      <c r="P40" s="4"/>
+      <c r="Q40" s="4"/>
+    </row>
+    <row r="41" spans="3:17" x14ac:dyDescent="0.95">
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+      <c r="N41" s="4"/>
+      <c r="O41" s="4"/>
+      <c r="P41" s="4"/>
+      <c r="Q41" s="4"/>
+    </row>
+    <row r="42" spans="3:17" x14ac:dyDescent="0.95">
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="Q42" s="4"/>
+    </row>
+    <row r="43" spans="3:17" x14ac:dyDescent="0.95">
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="Q43" s="4"/>
+    </row>
+    <row r="44" spans="3:17" x14ac:dyDescent="0.95">
+      <c r="G44" s="4"/>
+      <c r="L44" s="4"/>
+      <c r="Q44" s="4"/>
+    </row>
+    <row r="45" spans="3:17" x14ac:dyDescent="0.95">
+      <c r="G45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="Q45" s="4"/>
+    </row>
+    <row r="46" spans="3:17" x14ac:dyDescent="0.95">
+      <c r="G46" s="4"/>
+      <c r="L46" s="4"/>
+      <c r="Q46" s="4"/>
+    </row>
+    <row r="47" spans="3:17" x14ac:dyDescent="0.95">
+      <c r="G47" s="4"/>
+      <c r="L47" s="4"/>
+      <c r="Q47" s="4"/>
+    </row>
+  </sheetData>
+  <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0527777777777778" bottom="1.0527777777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
